--- a/ベースマシン シーケンサー部 ブロック図.xlsx
+++ b/ベースマシン シーケンサー部 ブロック図.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\BaseMachine まとめ その2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\BSM02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,7 +65,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2018.03.03</t>
+    <t>2018.03.22</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2516,6 +2516,114 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Oval 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8425962" y="2359269"/>
+          <a:ext cx="842596" cy="842596"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+            <a:t>SyncIn</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84259</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="14" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8088923" y="2780567"/>
+          <a:ext cx="337039" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2813,8 +2921,8 @@
   </sheetPr>
   <dimension ref="B2:AM8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
